--- a/doc/backlog/raw.xlsx
+++ b/doc/backlog/raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Imonas\Imonas.V4\doc\backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Imonas\doc\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334B1C7B-C0F4-41F4-8601-FE566F0C59C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFEE01-1F2C-4102-9958-90942073DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A3BD1BF-583E-4BEF-9445-A0625866ABBC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="517">
   <si>
     <t>ID</t>
   </si>
@@ -1573,6 +1573,21 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Add Variable Fee for the BtcBit field mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the Dictionary Status on the SilverCommand </t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Use minimum score in MatchingRule</t>
+  </si>
+  <si>
+    <t>Check that the user References inside comments actually work properly</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1751,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1933,6 +1948,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2109,7 +2130,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2142,6 +2163,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2224,8 +2246,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}" name="Table2" displayName="Table2" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}" name="Table2" displayName="Table2" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D5A1DD2A-B9D1-4091-A23D-61EDF7C0191A}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7E6200FA-6FD7-40A5-99B4-71DF24545E31}" name="Description"/>
@@ -4281,16 +4303,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD3C9D6-AC80-4708-8414-8BAA26C9244D}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4314,7 +4337,7 @@
       <c r="B2" t="s">
         <v>494</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>511</v>
       </c>
       <c r="D2" t="s">
@@ -4356,7 +4379,7 @@
       <c r="B5" t="s">
         <v>501</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>511</v>
       </c>
       <c r="D5" t="s">
@@ -4539,7 +4562,7 @@
         <v>508</v>
       </c>
       <c r="C18" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="D18" t="s">
         <v>498</v>
@@ -4557,6 +4580,62 @@
       </c>
       <c r="D19" t="s">
         <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" t="s">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" t="s">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/doc/backlog/raw.xlsx
+++ b/doc/backlog/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Imonas\doc\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFEE01-1F2C-4102-9958-90942073DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B8FD1-67AD-4F33-A509-29AC013666AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A3BD1BF-583E-4BEF-9445-A0625866ABBC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="519">
   <si>
     <t>ID</t>
   </si>
@@ -1588,13 +1588,19 @@
   </si>
   <si>
     <t>Check that the user References inside comments actually work properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the simulation </t>
+  </si>
+  <si>
+    <t>https://localhost:5001/reports - BtcBit, 01.11.2025-2.2.2026, All Transactions -&gt; Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,6 +1755,14 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2086,7 +2100,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2129,8 +2143,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2155,6 +2170,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,9 +2179,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2199,6 +2215,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2246,8 +2263,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}" name="Table2" displayName="Table2" ref="A1:D23" totalsRowShown="0">
-  <autoFilter ref="A1:D23" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}" name="Table2" displayName="Table2" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D5A1DD2A-B9D1-4091-A23D-61EDF7C0191A}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7E6200FA-6FD7-40A5-99B4-71DF24545E31}" name="Description"/>
@@ -4303,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD3C9D6-AC80-4708-8414-8BAA26C9244D}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4337,7 +4354,7 @@
       <c r="B2" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>511</v>
       </c>
       <c r="D2" t="s">
@@ -4379,7 +4396,7 @@
       <c r="B5" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>511</v>
       </c>
       <c r="D5" t="s">
@@ -4638,10 +4655,29 @@
         <v>499</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{47BABF4F-466D-4618-8F9B-BC36444CD260}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4691,36 +4727,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -5891,12 +5927,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">

--- a/doc/backlog/raw.xlsx
+++ b/doc/backlog/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Imonas\doc\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B8FD1-67AD-4F33-A509-29AC013666AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D3199A-FC6B-48E1-A398-ABA83E4B71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A3BD1BF-583E-4BEF-9445-A0625866ABBC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="523">
   <si>
     <t>ID</t>
   </si>
@@ -1594,6 +1594,18 @@
   </si>
   <si>
     <t>https://localhost:5001/reports - BtcBit, 01.11.2025-2.2.2026, All Transactions -&gt; Error</t>
+  </si>
+  <si>
+    <t>Check - https://test.imonas.com/audittrails/index</t>
+  </si>
+  <si>
+    <t>GDPR</t>
+  </si>
+  <si>
+    <t>Privacy page</t>
+  </si>
+  <si>
+    <t>Support chat buttons - _NavFooter</t>
   </si>
 </sst>
 </file>
@@ -2171,6 +2183,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,7 +2192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2263,8 +2275,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}" name="Table2" displayName="Table2" ref="A1:D25" totalsRowShown="0">
-  <autoFilter ref="A1:D25" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}" name="Table2" displayName="Table2" ref="A1:D30" totalsRowShown="0">
+  <autoFilter ref="A1:D30" xr:uid="{D197452D-6141-4C5D-9FFA-5BF89013B3C1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D5A1DD2A-B9D1-4091-A23D-61EDF7C0191A}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7E6200FA-6FD7-40A5-99B4-71DF24545E31}" name="Description"/>
@@ -4320,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD3C9D6-AC80-4708-8414-8BAA26C9244D}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4667,8 +4679,58 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>518</v>
+      </c>
+      <c r="C25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" t="s">
+        <v>500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" t="s">
+        <v>500</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4727,36 +4789,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -5927,12 +5989,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
